--- a/data_quarter/zb/工业/主要工业产品的销售与库存/机制纸及纸板.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/机制纸及纸板.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,21 @@
           <t>机制纸及纸板销售量_累计值</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>机制纸及纸板产销率</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>机制纸及纸板销售量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -473,49 +483,67 @@
       <c r="E2" t="n">
         <v>1064.1</v>
       </c>
+      <c r="F2" t="n">
+        <v>98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1064.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>13.4</v>
       </c>
       <c r="E3" t="n">
-        <v>3743</v>
+        <v>2373.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1309.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>2373.5</v>
+        <v>3743</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1369.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -530,11 +558,17 @@
       <c r="E5" t="n">
         <v>5270.9</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1527.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -549,49 +583,67 @@
       <c r="E6" t="n">
         <v>1399.3</v>
       </c>
+      <c r="F6" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1399.3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="E7" t="n">
-        <v>4845.7</v>
+        <v>3076.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1677.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D8" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="E8" t="n">
-        <v>3076.4</v>
+        <v>4845.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1769.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -606,11 +658,17 @@
       <c r="E9" t="n">
         <v>6725.8</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.8000000000000114</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1880.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -625,49 +683,67 @@
       <c r="E10" t="n">
         <v>1614.3</v>
       </c>
+      <c r="F10" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1614.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D11" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E11" t="n">
-        <v>5595.1</v>
+        <v>3615.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.699999999999989</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E12" t="n">
-        <v>3615.3</v>
+        <v>5595.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1979.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -682,11 +758,17 @@
       <c r="E13" t="n">
         <v>7687.7</v>
       </c>
+      <c r="F13" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2092.599999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -701,49 +783,67 @@
       <c r="E14" t="n">
         <v>1845.7</v>
       </c>
+      <c r="F14" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1845.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>97.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.4</v>
+        <v>-0.7</v>
       </c>
       <c r="D15" t="n">
-        <v>50.1</v>
+        <v>29.2</v>
       </c>
       <c r="E15" t="n">
-        <v>6077.1</v>
+        <v>4041.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2195.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>97.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2</v>
+        <v>50.1</v>
       </c>
       <c r="E16" t="n">
-        <v>4041.1</v>
+        <v>6077.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -758,11 +858,17 @@
       <c r="E17" t="n">
         <v>8155.4</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2078.299999999999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -777,49 +883,67 @@
       <c r="E18" t="n">
         <v>1875</v>
       </c>
+      <c r="F18" t="n">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1875</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.7</v>
+        <v>0.9</v>
       </c>
       <c r="E19" t="n">
-        <v>6670.4</v>
+        <v>4252.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2377.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9</v>
+        <v>-2.7</v>
       </c>
       <c r="E20" t="n">
-        <v>4252.6</v>
+        <v>6670.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2417.799999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -834,11 +958,17 @@
       <c r="E21" t="n">
         <v>9292.1</v>
       </c>
+      <c r="F21" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2621.700000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -853,49 +983,67 @@
       <c r="E22" t="n">
         <v>2240.5</v>
       </c>
+      <c r="F22" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2240.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="D23" t="n">
-        <v>9.699999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="E23" t="n">
-        <v>7262.1</v>
+        <v>4785.9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2545.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C24" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="D24" t="n">
-        <v>21.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>4785.9</v>
+        <v>7262.1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2476.200000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -910,11 +1058,17 @@
       <c r="E25" t="n">
         <v>9978.799999999999</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2716.699999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -929,49 +1083,67 @@
       <c r="E26" t="n">
         <v>2380.3</v>
       </c>
+      <c r="F26" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2380.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D27" t="n">
-        <v>28.9</v>
+        <v>22.9</v>
       </c>
       <c r="E27" t="n">
-        <v>8057.6</v>
+        <v>5241.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2861.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="D28" t="n">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="E28" t="n">
-        <v>5241.5</v>
+        <v>8057.6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2816.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -986,11 +1158,17 @@
       <c r="E29" t="n">
         <v>10844.1</v>
       </c>
+      <c r="F29" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2786.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1005,49 +1183,67 @@
       <c r="E30" t="n">
         <v>2733.3</v>
       </c>
+      <c r="F30" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2733.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D31" t="n">
-        <v>20.81</v>
+        <v>20.3</v>
       </c>
       <c r="E31" t="n">
-        <v>8567.1</v>
+        <v>5621.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2888.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D32" t="n">
-        <v>20.3</v>
+        <v>20.81</v>
       </c>
       <c r="E32" t="n">
-        <v>5621.5</v>
+        <v>8567.1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8000000000000114</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2945.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1062,11 +1258,17 @@
       <c r="E33" t="n">
         <v>11257.7</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2690.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1081,49 +1283,67 @@
       <c r="E34" t="n">
         <v>2818.1</v>
       </c>
+      <c r="F34" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2818.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D35" t="n">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="E35" t="n">
-        <v>8632</v>
+        <v>5752.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2934.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D36" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="E36" t="n">
-        <v>5752.5</v>
+        <v>8632</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2879.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1138,11 +1358,17 @@
       <c r="E37" t="n">
         <v>11521.8</v>
       </c>
+      <c r="F37" t="n">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2889.799999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1157,49 +1383,67 @@
       <c r="E38" t="n">
         <v>2737.2</v>
       </c>
+      <c r="F38" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2737.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="D39" t="n">
-        <v>22.3</v>
+        <v>25.6</v>
       </c>
       <c r="E39" t="n">
-        <v>8756.799999999999</v>
+        <v>5773.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3036.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D40" t="n">
-        <v>25.6</v>
+        <v>22.3</v>
       </c>
       <c r="E40" t="n">
-        <v>5773.7</v>
+        <v>8756.799999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2983.099999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1214,11 +1458,17 @@
       <c r="E41" t="n">
         <v>11605.7</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2848.900000000001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1233,49 +1483,67 @@
       <c r="E42" t="n">
         <v>2624.1</v>
       </c>
+      <c r="F42" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2624.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="D43" t="n">
-        <v>14.1</v>
+        <v>10.3</v>
       </c>
       <c r="E43" t="n">
-        <v>8646.6</v>
+        <v>5668.3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3044.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="D44" t="n">
-        <v>10.3</v>
+        <v>14.1</v>
       </c>
       <c r="E44" t="n">
-        <v>5668.3</v>
+        <v>8646.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2978.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1290,11 +1558,17 @@
       <c r="E45" t="n">
         <v>11712.5</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3065.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1309,49 +1583,67 @@
       <c r="E46" t="n">
         <v>2733.68512</v>
       </c>
+      <c r="F46" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2733.68512</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D47" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="E47" t="n">
-        <v>8799.50481</v>
+        <v>5777.88405</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3044.19893</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="E48" t="n">
-        <v>5777.88405</v>
+        <v>8799.50481</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3021.620760000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1366,11 +1658,17 @@
       <c r="E49" t="n">
         <v>12105.2726</v>
       </c>
+      <c r="F49" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3305.76779</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1385,49 +1683,67 @@
       <c r="E50" t="n">
         <v>2859.31791</v>
       </c>
+      <c r="F50" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2859.31791</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="D51" t="n">
-        <v>7.9</v>
+        <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>9444.18455</v>
+        <v>6203.9655</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3.099999999999994</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3344.64759</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>7.9</v>
       </c>
       <c r="E52" t="n">
-        <v>6203.9655</v>
+        <v>9444.18455</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3240.21905</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1442,11 +1758,17 @@
       <c r="E53" t="n">
         <v>12285.67985</v>
       </c>
+      <c r="F53" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2841.4953</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1461,49 +1783,67 @@
       <c r="E54" t="n">
         <v>2855.68711</v>
       </c>
+      <c r="F54" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2855.68711</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.6</v>
+        <v>1.3</v>
       </c>
       <c r="D55" t="n">
-        <v>13.7</v>
+        <v>5.3</v>
       </c>
       <c r="E55" t="n">
-        <v>8730.480509999999</v>
+        <v>5914.37153</v>
+      </c>
+      <c r="F55" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3058.684420000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>1.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D56" t="n">
-        <v>5.3</v>
+        <v>13.7</v>
       </c>
       <c r="E56" t="n">
-        <v>5914.37153</v>
+        <v>8730.480509999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2816.108979999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1518,11 +1858,17 @@
       <c r="E57" t="n">
         <v>11585.76232</v>
       </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2855.28181</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1537,49 +1883,67 @@
       <c r="E58" t="n">
         <v>2725.14993</v>
       </c>
+      <c r="F58" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2725.14993</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.0051956397</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>2.1764958866</v>
+        <v>-0.6</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.8316654424</v>
+        <v>13.5</v>
       </c>
       <c r="E59" t="n">
-        <v>9172.066059999999</v>
+        <v>5756.32001</v>
+      </c>
+      <c r="F59" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3031.17008</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>98.09999999999999</v>
+        <v>100.0051956397</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.6</v>
+        <v>2.1764958866</v>
       </c>
       <c r="D60" t="n">
-        <v>13.5</v>
+        <v>-0.8316654424</v>
       </c>
       <c r="E60" t="n">
-        <v>5756.32001</v>
+        <v>9172.066059999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.905195639700011</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3415.746049999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1593,6 +1957,12 @@
       </c>
       <c r="E61" t="n">
         <v>12507.72126</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5948043602999888</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3335.655200000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/工业/主要工业产品的销售与库存/机制纸及纸板.xlsx
+++ b/data_quarter/zb/工业/主要工业产品的销售与库存/机制纸及纸板.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,16 +454,6 @@
           <t>机制纸及纸板销售量_累计值</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>机制纸及纸板产销率</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>机制纸及纸板销售量</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,61 +473,43 @@
       <c r="E2" t="n">
         <v>1064.1</v>
       </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1064.1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>2373.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1309.4</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>13.4</v>
       </c>
       <c r="E4" t="n">
-        <v>3743</v>
-      </c>
-      <c r="F4" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1369.5</v>
+        <v>2373.5</v>
       </c>
     </row>
     <row r="5">
@@ -558,12 +530,6 @@
       <c r="E5" t="n">
         <v>5270.9</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1527.9</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,61 +549,43 @@
       <c r="E6" t="n">
         <v>1399.3</v>
       </c>
-      <c r="F6" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1399.3</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D7" t="n">
-        <v>23.7</v>
+        <v>22.9</v>
       </c>
       <c r="E7" t="n">
-        <v>3076.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1677.1</v>
+        <v>4845.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>98.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="D8" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="E8" t="n">
-        <v>4845.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1769.3</v>
+        <v>3076.4</v>
       </c>
     </row>
     <row r="9">
@@ -658,12 +606,6 @@
       <c r="E9" t="n">
         <v>6725.8</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1880.1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -683,61 +625,43 @@
       <c r="E10" t="n">
         <v>1614.3</v>
       </c>
-      <c r="F10" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1614.3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="D11" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E11" t="n">
-        <v>3615.3</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.699999999999989</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2001</v>
+        <v>5595.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E12" t="n">
-        <v>5595.1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1979.8</v>
+        <v>3615.3</v>
       </c>
     </row>
     <row r="13">
@@ -758,12 +682,6 @@
       <c r="E13" t="n">
         <v>7687.7</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2092.599999999999</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -783,61 +701,43 @@
       <c r="E14" t="n">
         <v>1845.7</v>
       </c>
-      <c r="F14" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1845.7</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>97.5</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2</v>
+        <v>50.1</v>
       </c>
       <c r="E15" t="n">
-        <v>4041.1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.099999999999994</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2195.4</v>
+        <v>6077.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>97.5</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.4</v>
+        <v>-0.7</v>
       </c>
       <c r="D16" t="n">
-        <v>50.1</v>
+        <v>29.2</v>
       </c>
       <c r="E16" t="n">
-        <v>6077.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2036</v>
+        <v>4041.1</v>
       </c>
     </row>
     <row r="17">
@@ -858,12 +758,6 @@
       <c r="E17" t="n">
         <v>8155.4</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2078.299999999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -883,61 +777,43 @@
       <c r="E18" t="n">
         <v>1875</v>
       </c>
-      <c r="F18" t="n">
-        <v>2.200000000000003</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1875</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9</v>
+        <v>-2.7</v>
       </c>
       <c r="E19" t="n">
-        <v>4252.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2377.6</v>
+        <v>6670.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.7</v>
+        <v>0.9</v>
       </c>
       <c r="E20" t="n">
-        <v>6670.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2417.799999999999</v>
+        <v>4252.6</v>
       </c>
     </row>
     <row r="21">
@@ -958,12 +834,6 @@
       <c r="E21" t="n">
         <v>9292.1</v>
       </c>
-      <c r="F21" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2621.700000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -983,61 +853,43 @@
       <c r="E22" t="n">
         <v>2240.5</v>
       </c>
-      <c r="F22" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2240.5</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C23" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="D23" t="n">
-        <v>21.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>4785.9</v>
-      </c>
-      <c r="F23" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2545.4</v>
+        <v>7262.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="n">
-        <v>9.699999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="E24" t="n">
-        <v>7262.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2476.200000000001</v>
+        <v>4785.9</v>
       </c>
     </row>
     <row r="25">
@@ -1058,12 +910,6 @@
       <c r="E25" t="n">
         <v>9978.799999999999</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2716.699999999999</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1083,61 +929,43 @@
       <c r="E26" t="n">
         <v>2380.3</v>
       </c>
-      <c r="F26" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2380.3</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="D27" t="n">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="E27" t="n">
-        <v>5241.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.2999999999999972</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2861.2</v>
+        <v>8057.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.7</v>
+        <v>1.5</v>
       </c>
       <c r="D28" t="n">
-        <v>28.9</v>
+        <v>22.9</v>
       </c>
       <c r="E28" t="n">
-        <v>8057.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2816.1</v>
+        <v>5241.5</v>
       </c>
     </row>
     <row r="29">
@@ -1158,12 +986,6 @@
       <c r="E29" t="n">
         <v>10844.1</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.200000000000003</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2786.5</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1183,61 +1005,43 @@
       <c r="E30" t="n">
         <v>2733.3</v>
       </c>
-      <c r="F30" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2733.3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D31" t="n">
-        <v>20.3</v>
+        <v>20.81</v>
       </c>
       <c r="E31" t="n">
-        <v>5621.5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2888.2</v>
+        <v>8567.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D32" t="n">
-        <v>20.81</v>
+        <v>20.3</v>
       </c>
       <c r="E32" t="n">
-        <v>8567.1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2945.6</v>
+        <v>5621.5</v>
       </c>
     </row>
     <row r="33">
@@ -1258,12 +1062,6 @@
       <c r="E33" t="n">
         <v>11257.7</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.3999999999999915</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2690.6</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1283,61 +1081,43 @@
       <c r="E34" t="n">
         <v>2818.1</v>
       </c>
-      <c r="F34" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2818.1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D35" t="n">
-        <v>18.8</v>
+        <v>19.9</v>
       </c>
       <c r="E35" t="n">
-        <v>5752.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2934.4</v>
+        <v>8632</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D36" t="n">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="E36" t="n">
-        <v>8632</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.100000000000009</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2879.5</v>
+        <v>5752.5</v>
       </c>
     </row>
     <row r="37">
@@ -1358,12 +1138,6 @@
       <c r="E37" t="n">
         <v>11521.8</v>
       </c>
-      <c r="F37" t="n">
-        <v>1.599999999999994</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2889.799999999999</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1383,61 +1157,43 @@
       <c r="E38" t="n">
         <v>2737.2</v>
       </c>
-      <c r="F38" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2737.2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="D39" t="n">
-        <v>25.6</v>
+        <v>22.3</v>
       </c>
       <c r="E39" t="n">
-        <v>5773.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.1000000000000085</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3036.5</v>
+        <v>8756.799999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="D40" t="n">
-        <v>22.3</v>
+        <v>25.6</v>
       </c>
       <c r="E40" t="n">
-        <v>8756.799999999999</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2983.099999999999</v>
+        <v>5773.7</v>
       </c>
     </row>
     <row r="41">
@@ -1458,12 +1214,6 @@
       <c r="E41" t="n">
         <v>11605.7</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2848.900000000001</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1483,61 +1233,43 @@
       <c r="E42" t="n">
         <v>2624.1</v>
       </c>
-      <c r="F42" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2624.1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="D43" t="n">
-        <v>10.3</v>
+        <v>14.1</v>
       </c>
       <c r="E43" t="n">
-        <v>5668.3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.4000000000000057</v>
-      </c>
-      <c r="G43" t="n">
-        <v>3044.2</v>
+        <v>8646.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="D44" t="n">
-        <v>14.1</v>
+        <v>10.3</v>
       </c>
       <c r="E44" t="n">
-        <v>8646.6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.2000000000000028</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2978.3</v>
+        <v>5668.3</v>
       </c>
     </row>
     <row r="45">
@@ -1558,12 +1290,6 @@
       <c r="E45" t="n">
         <v>11712.5</v>
       </c>
-      <c r="F45" t="n">
-        <v>0.8999999999999915</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3065.9</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1583,61 +1309,43 @@
       <c r="E46" t="n">
         <v>2733.68512</v>
       </c>
-      <c r="F46" t="n">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2733.68512</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="E47" t="n">
-        <v>5777.88405</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.6000000000000085</v>
-      </c>
-      <c r="G47" t="n">
-        <v>3044.19893</v>
+        <v>8799.50481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D48" t="n">
-        <v>1.1</v>
+        <v>7.7</v>
       </c>
       <c r="E48" t="n">
-        <v>8799.50481</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.7000000000000028</v>
-      </c>
-      <c r="G48" t="n">
-        <v>3021.620760000001</v>
+        <v>5777.88405</v>
       </c>
     </row>
     <row r="49">
@@ -1658,12 +1366,6 @@
       <c r="E49" t="n">
         <v>12105.2726</v>
       </c>
-      <c r="F49" t="n">
-        <v>0.6999999999999886</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3305.76779</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1683,61 +1385,43 @@
       <c r="E50" t="n">
         <v>2859.31791</v>
       </c>
-      <c r="F50" t="n">
-        <v>94.7</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2859.31791</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>97.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>7.9</v>
       </c>
       <c r="E51" t="n">
-        <v>6203.9655</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3.099999999999994</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3344.64759</v>
+        <v>9444.18455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>99.09999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="D52" t="n">
-        <v>7.9</v>
+        <v>20</v>
       </c>
       <c r="E52" t="n">
-        <v>9444.18455</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3240.21905</v>
+        <v>6203.9655</v>
       </c>
     </row>
     <row r="53">
@@ -1758,12 +1442,6 @@
       <c r="E53" t="n">
         <v>12285.67985</v>
       </c>
-      <c r="F53" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2841.4953</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1783,61 +1461,43 @@
       <c r="E54" t="n">
         <v>2855.68711</v>
       </c>
-      <c r="F54" t="n">
-        <v>1.299999999999997</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2855.68711</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>1.3</v>
+        <v>-0.6</v>
       </c>
       <c r="D55" t="n">
-        <v>5.3</v>
+        <v>13.7</v>
       </c>
       <c r="E55" t="n">
-        <v>5914.37153</v>
-      </c>
-      <c r="F55" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3058.684420000001</v>
+        <v>8730.480509999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6</v>
+        <v>1.3</v>
       </c>
       <c r="D56" t="n">
-        <v>13.7</v>
+        <v>5.3</v>
       </c>
       <c r="E56" t="n">
-        <v>8730.480509999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2816.108979999999</v>
+        <v>5914.37153</v>
       </c>
     </row>
     <row r="57">
@@ -1858,12 +1518,6 @@
       <c r="E57" t="n">
         <v>11585.76232</v>
       </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2855.28181</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1883,61 +1537,43 @@
       <c r="E58" t="n">
         <v>2725.14993</v>
       </c>
-      <c r="F58" t="n">
-        <v>0.09999999999999432</v>
-      </c>
-      <c r="G58" t="n">
-        <v>2725.14993</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>98.09999999999999</v>
+        <v>100.0051956397</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.6</v>
+        <v>2.1764958866</v>
       </c>
       <c r="D59" t="n">
-        <v>13.5</v>
+        <v>-0.8316654424</v>
       </c>
       <c r="E59" t="n">
-        <v>5756.32001</v>
-      </c>
-      <c r="F59" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3031.17008</v>
+        <v>9172.066059999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.0051956397</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>2.1764958866</v>
+        <v>-0.6</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.8316654424</v>
+        <v>13.5</v>
       </c>
       <c r="E60" t="n">
-        <v>9172.066059999999</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.905195639700011</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3415.746049999999</v>
+        <v>5756.32001</v>
       </c>
     </row>
     <row r="61">
@@ -1957,12 +1593,6 @@
       </c>
       <c r="E61" t="n">
         <v>12507.72126</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.5948043602999888</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3335.655200000001</v>
       </c>
     </row>
   </sheetData>
